--- a/数据整理/stocks/港股/00354-中国软件国际.xlsx
+++ b/数据整理/stocks/港股/00354-中国软件国际.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,91 +22,139 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>005644</t>
+  </si>
+  <si>
     <t>007110</t>
   </si>
   <si>
     <t>005504</t>
   </si>
   <si>
-    <t>005644</t>
+    <t>006595</t>
   </si>
   <si>
     <t>006205</t>
   </si>
   <si>
-    <t>006595</t>
-  </si>
-  <si>
     <t>161124</t>
   </si>
   <si>
     <t>006263</t>
   </si>
   <si>
+    <t>广发沪港深行业龙头混合</t>
+  </si>
+  <si>
     <t>国投瑞银港股通价值发现混合</t>
   </si>
   <si>
     <t>汇添富沪港深大盘价值混合</t>
   </si>
   <si>
-    <t>广发沪港深行业龙头混合</t>
+    <t>广发港股通优质增长混合</t>
   </si>
   <si>
     <t>汇添富沪港深优势精选定期开放混合</t>
   </si>
   <si>
-    <t>广发港股通优质增长混合</t>
-  </si>
-  <si>
     <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
   </si>
   <si>
     <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
   </si>
   <si>
+    <t>36.80</t>
+  </si>
+  <si>
+    <t>22.49</t>
+  </si>
+  <si>
+    <t>14.01</t>
+  </si>
+  <si>
+    <t>9.23</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>88.91</t>
+  </si>
+  <si>
     <t>71.81</t>
   </si>
   <si>
     <t>91.55</t>
   </si>
   <si>
-    <t>88.91</t>
+    <t>92.57</t>
   </si>
   <si>
     <t>94.54</t>
   </si>
   <si>
-    <t>92.57</t>
-  </si>
-  <si>
     <t>93.11</t>
   </si>
   <si>
+    <t>3.34</t>
+  </si>
+  <si>
     <t>3.24</t>
   </si>
   <si>
     <t>4.39</t>
   </si>
   <si>
-    <t>3.34</t>
+    <t>3.57</t>
   </si>
   <si>
     <t>4.90</t>
   </si>
   <si>
-    <t>3.57</t>
-  </si>
-  <si>
     <t>1.96</t>
+  </si>
+  <si>
+    <t>1.2291</t>
+  </si>
+  <si>
+    <t>0.7287</t>
+  </si>
+  <si>
+    <t>0.6150</t>
+  </si>
+  <si>
+    <t>0.3295</t>
+  </si>
+  <si>
+    <t>0.0397</t>
+  </si>
+  <si>
+    <t>0.0098</t>
+  </si>
+  <si>
+    <t>0.0024</t>
   </si>
 </sst>
 </file>
@@ -464,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,144 +534,192 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00354-中国软件国际.xlsx
+++ b/数据整理/stocks/港股/00354-中国软件国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7930</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6178</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5760</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00354-中国软件国际.xlsx
+++ b/数据整理/stocks/港股/00354-中国软件国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1638,4 +1639,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00354-中国软件国际.xlsx
+++ b/数据整理/stocks/港股/00354-中国软件国际.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.19</v>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6589</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.22</v>
       </c>
     </row>
     <row r="4">
@@ -1710,13 +1775,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.95</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00354-中国软件国际.xlsx
+++ b/数据整理/stocks/港股/00354-中国软件国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1932,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,17 +1944,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1984,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.6</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1979,14 +2074,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>4.19</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="4">
@@ -1995,14 +2090,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>4.22</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="5">
@@ -2011,13 +2106,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.95</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00354-中国软件国际.xlsx
+++ b/数据整理/stocks/港股/00354-中国软件国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2027,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,17 +2039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2058,14 +2079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2074,14 +2117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.6</v>
       </c>
     </row>
     <row r="4">
@@ -2090,14 +2155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.19</v>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2106,14 +2193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.22</v>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2122,13 +2231,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.95</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00354-中国软件国际.xlsx
+++ b/数据整理/stocks/港股/00354-中国软件国际.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,319 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005644</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发沪港深行业龙头混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>36.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2291</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007110</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通价值发现混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>71.81</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7287</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6150</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006595</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发港股通优质增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3295</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0397</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
+      <c r="D7" t="n">
+        <v>2.95</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -778,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -829,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007110</t>
+          <t>159792</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银港股通价值发现混合</t>
+          <t>富国中证港股通互联网ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.85</t>
+          <t>15.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.58</t>
+          <t>99.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2149</t>
+          <t>0.5438</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -867,32 +677,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>011157</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>弘毅远方港股通智选领航混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9617</t>
+          <t>0.1781</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -905,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>011158</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>弘毅远方港股通智选领航混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9617</t>
+          <t>0.0383</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -943,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>006227</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>华宝科技先锋混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8011</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -981,226 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>010842</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>华宝科技先锋混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1750</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0614</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005698</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏全球科技先锋混合QDII</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.48</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>501023</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1235,7 +855,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1265,377 +885,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>159792</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>富国中证港股通互联网ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.91</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9348</t>
+          <t>0.0718</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9348</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007110</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通价值发现混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7930</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009846</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富兰克林国海港股通远见价值混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.80</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.06</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6178</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5760</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010204</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银港股通优势成长股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.12</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1375</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>100055</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国全球科技互联网股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0826</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0456</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006373</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006374</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1934,7 +1212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1955,7 +1233,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1985,35 +1263,377 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159792</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证港股通互联网ETF</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0718</t>
+          <t>0.9348</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7930</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6178</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5760</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2028,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2049,7 +1669,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2079,36 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159792</t>
+          <t>007110</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证港股通互联网ETF</t>
+          <t>国投瑞银港股通价值发现混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.90</t>
+          <t>21.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.50</t>
+          <t>91.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5438</t>
+          <t>1.2149</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2117,32 +1737,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011157</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合A</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>18.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1781</t>
+          <t>0.9617</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2155,32 +1775,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011158</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合C</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>18.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0383</t>
+          <t>0.9617</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2193,36 +1813,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006227</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝科技先锋混合A</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.8011</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2231,36 +1851,226 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010842</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝科技先锋混合C</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>91.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.1750</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2274,128 +2084,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2291</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.95</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00354-中国软件国际.xlsx
+++ b/数据整理/stocks/港股/00354-中国软件国际.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.6</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4.19</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>4.22</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.95</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513770</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -828,7 +977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -922,7 +1071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1199,442 +1348,6 @@
       </c>
       <c r="H7" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9348</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9348</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007110</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通价值发现混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7930</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009846</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富兰克林国海港股通远见价值混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.80</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.06</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6178</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5760</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010204</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银港股通优势成长股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.12</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1375</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>100055</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国全球科技互联网股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0826</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0456</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006373</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006374</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1699,36 +1412,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007110</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银港股通价值发现混合</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.85</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.58</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2149</t>
+          <t>0.9348</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1737,36 +1450,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9617</t>
+          <t>0.9348</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1775,32 +1488,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>007110</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>国投瑞银港股通价值发现混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9617</t>
+          <t>0.7930</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1813,36 +1526,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>20.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>86.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8011</t>
+          <t>0.6178</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1851,36 +1564,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1750</t>
+          <t>0.5760</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1889,36 +1602,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>010204</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>中银港股通优势成长股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>82.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0614</t>
+          <t>0.1375</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1927,32 +1640,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005698</t>
+          <t>100055</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏全球科技先锋混合QDII</t>
+          <t>富国全球科技互联网股票(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.48</t>
+          <t>81.86</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0265</t>
+          <t>0.0826</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1965,36 +1678,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0137</t>
+          <t>0.0456</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2003,36 +1716,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006263</t>
+          <t>006373</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>78.55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2041,36 +1754,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>006374</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>78.55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2079,6 +1792,442 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9617</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9617</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8011</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00354-中国软件国际.xlsx
+++ b/数据整理/stocks/港股/00354-中国软件国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.65</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.6</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4.19</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>4.22</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.95</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159792</t>
+          <t>002121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证港股通互联网ETF</t>
+          <t>广发沪港深新起点股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.08</t>
+          <t>26.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>88.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5406</t>
+          <t>0.9100</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513770</t>
+          <t>010024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝中证港股通互联网ETF</t>
+          <t>广发沪港深新起点股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.21</t>
+          <t>88.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1117</t>
+          <t>0.0204</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -732,6 +749,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513770</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1071,7 +1220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1348,442 +1497,6 @@
       </c>
       <c r="H7" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9348</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9348</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007110</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通价值发现混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7930</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009846</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富兰克林国海港股通远见价值混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.80</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.06</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6178</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5760</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010204</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银港股通优势成长股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.12</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1375</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>100055</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国全球科技互联网股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0826</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0456</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006373</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006374</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1848,36 +1561,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007110</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银港股通价值发现混合</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.85</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.58</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2149</t>
+          <t>0.9348</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1886,36 +1599,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9617</t>
+          <t>0.9348</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1924,32 +1637,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>007110</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>国投瑞银港股通价值发现混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.71</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9617</t>
+          <t>0.7930</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1962,36 +1675,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>20.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>86.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8011</t>
+          <t>0.6178</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2000,36 +1713,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1750</t>
+          <t>0.5760</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2038,36 +1751,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>010204</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>中银港股通优势成长股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>82.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0614</t>
+          <t>0.1375</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2076,32 +1789,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005698</t>
+          <t>100055</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏全球科技先锋混合QDII</t>
+          <t>富国全球科技互联网股票(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.48</t>
+          <t>81.86</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0265</t>
+          <t>0.0826</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2114,36 +1827,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0137</t>
+          <t>0.0456</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2152,36 +1865,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006263</t>
+          <t>006373</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>78.55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2190,36 +1903,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>006374</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>78.55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2228,6 +1941,442 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9617</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9617</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8011</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
